--- a/FME_files/LOOKUP_TABLES/Config_AB_XML_Publisher.xlsx
+++ b/FME_files/LOOKUP_TABLES/Config_AB_XML_Publisher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -213,9 +213,6 @@
     <t>keyword_other_lang_locale</t>
   </si>
   <si>
-    <t>online_resource_link</t>
-  </si>
-  <si>
     <t>projection_name</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>GMD_KEYWORDS</t>
   </si>
   <si>
-    <t>GMD_ONLINERESOURCE</t>
-  </si>
-  <si>
     <t>GMD_REFERENCESYSTEMINFO</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
     <t>FEATURE_ATTRIBUTES</t>
   </si>
   <si>
-    <t>GMD_MDMETADATA;GMD_CONTACT;GMD_CITEDRESPONSIBLEPARTY;GMD_DISTRIBUTOR;GMD_DISTRIBUTIONFORMAT;GMD_KEYWORDS;GMD_ONLINERESOURCE;GMD_REFERENCESYSTEMINFO;GMD_RESOURCEMAINTENANCE;GMD_TOPICCATEGORY;GMD_TRANSFEROPTIONS</t>
-  </si>
-  <si>
     <t>contacts{}.name</t>
   </si>
   <si>
@@ -303,12 +294,6 @@
     <t>tags{}.display_name_fr</t>
   </si>
   <si>
-    <t>more_info{}.link</t>
-  </si>
-  <si>
-    <t>more_info{}.protocol</t>
-  </si>
-  <si>
     <t>iso_topic{}.topic_value</t>
   </si>
   <si>
@@ -333,9 +318,6 @@
     <t>service_other_lang_locale</t>
   </si>
   <si>
-    <t>online_resource_protocol</t>
-  </si>
-  <si>
     <t>abstract_other_lang_locale</t>
   </si>
   <si>
@@ -448,6 +430,9 @@
   </si>
   <si>
     <t>transfer_option_description_language_other_lang</t>
+  </si>
+  <si>
+    <t>GMD_MDMETADATA;GMD_CONTACT;GMD_CITEDRESPONSIBLEPARTY;GMD_DISTRIBUTOR;GMD_DISTRIBUTIONFORMAT;GMD_KEYWORDS;GMD_REFERENCESYSTEMINFO;GMD_RESOURCEMAINTENANCE;GMD_TOPICCATEGORY;GMD_TRANSFEROPTIONS</t>
   </si>
 </sst>
 </file>
@@ -503,7 +488,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -765,13 +750,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" customWidth="1"/>
@@ -780,13 +765,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -797,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -808,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,7 +804,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -830,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -852,7 +837,7 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -863,7 +848,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,7 +859,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -885,7 +870,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -896,18 +881,18 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -918,7 +903,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -929,7 +914,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -940,7 +925,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -951,7 +936,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,7 +947,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -973,7 +958,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -984,7 +969,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -995,7 +980,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1006,7 +991,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1017,7 +1002,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1028,7 +1013,7 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,7 +1024,7 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1050,7 +1035,7 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1061,7 +1046,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,7 +1057,7 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1083,7 +1068,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1094,7 +1079,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1102,10 +1087,10 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1116,7 +1101,7 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1127,7 +1112,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1138,7 +1123,7 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1149,7 +1134,7 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1160,7 +1145,7 @@
         <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1168,10 +1153,10 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1179,10 +1164,10 @@
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,7 +1178,7 @@
         <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1201,10 +1186,10 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1212,10 +1197,10 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1223,10 +1208,10 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1234,10 +1219,10 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,10 +1230,10 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1259,84 +1244,84 @@
         <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1344,10 +1329,10 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1355,10 +1340,10 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,10 +1351,10 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,10 +1362,10 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1391,7 +1376,7 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1399,84 +1384,84 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
         <v>79</v>
@@ -1484,145 +1469,123 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>141</v>
-      </c>
-      <c r="B76" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>142</v>
-      </c>
-      <c r="B77" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/FME_files/LOOKUP_TABLES/Config_AB_XML_Publisher.xlsx
+++ b/FME_files/LOOKUP_TABLES/Config_AB_XML_Publisher.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="147">
   <si>
     <t>id</t>
   </si>
@@ -433,6 +433,33 @@
   </si>
   <si>
     <t>GMD_MDMETADATA;GMD_CONTACT;GMD_CITEDRESPONSIBLEPARTY;GMD_DISTRIBUTOR;GMD_DISTRIBUTIONFORMAT;GMD_KEYWORDS;GMD_REFERENCESYSTEMINFO;GMD_RESOURCEMAINTENANCE;GMD_TOPICCATEGORY;GMD_TRANSFEROPTIONS</t>
+  </si>
+  <si>
+    <t>online_resource_link</t>
+  </si>
+  <si>
+    <t>online_resource_protocol</t>
+  </si>
+  <si>
+    <t>contacts{}.postalcode</t>
+  </si>
+  <si>
+    <t>online_resource_description</t>
+  </si>
+  <si>
+    <t>online_resource_description_en</t>
+  </si>
+  <si>
+    <t>online_resource_description_other_lang_locale</t>
+  </si>
+  <si>
+    <t>online_resource_description_locale</t>
+  </si>
+  <si>
+    <t>online_resource_description_other_lang</t>
+  </si>
+  <si>
+    <t>online_resource_description_fr</t>
   </si>
 </sst>
 </file>
@@ -488,7 +515,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -750,13 +777,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" customWidth="1"/>
@@ -1588,6 +1615,138 @@
         <v>79</v>
       </c>
     </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/FME_files/LOOKUP_TABLES/Config_AB_XML_Publisher.xlsx
+++ b/FME_files/LOOKUP_TABLES/Config_AB_XML_Publisher.xlsx
@@ -441,9 +441,6 @@
     <t>online_resource_protocol</t>
   </si>
   <si>
-    <t>contacts{}.postalcode</t>
-  </si>
-  <si>
     <t>online_resource_description</t>
   </si>
   <si>
@@ -460,6 +457,9 @@
   </si>
   <si>
     <t>online_resource_description_fr</t>
+  </si>
+  <si>
+    <t>contact_postal_code</t>
   </si>
 </sst>
 </file>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" t="s">
         <v>141</v>
-      </c>
-      <c r="B78" t="s">
-        <v>142</v>
       </c>
       <c r="C78" t="s">
         <v>73</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" t="s">
         <v>143</v>
-      </c>
-      <c r="B79" t="s">
-        <v>144</v>
       </c>
       <c r="C79" t="s">
         <v>73</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" t="s">
         <v>145</v>
-      </c>
-      <c r="B80" t="s">
-        <v>146</v>
       </c>
       <c r="C80" t="s">
         <v>73</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C86" t="s">
         <v>73</v>
